--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Henry_Potts/Thomas_Henry_Potts.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Henry_Potts/Thomas_Henry_Potts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Henry Potts (23 novembre 1824 – 27 juillet 1888) est un naturaliste anglais et néo-zélandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Henry Potts est le fils et le petit-fils d'un petit fabricant d'armes. Il pratique en amateur l'ornithologie, l'entomologie et la botanique. Le 2 avril 1850, il se marie avec Emma Phillips, à l'église de Bourton-on-Dunsmoor, Warwickshire. Ils auront 13 enfants.
 Après la mort de ses parents, Potts émigre en 1854 en Nouvelle-Zélande où son beau-père est installé. Il y fait de nombreuses observations et décrit des espèces alors inconnues, dont le Kiwi roa
